--- a/01_ライフコース/02_自己紹介サイト作成/2768_1st_自己紹介サイト採点チェックリスト.xlsx
+++ b/01_ライフコース/02_自己紹介サイト作成/2768_1st_自己紹介サイト採点チェックリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaka\Downloads\自己紹介サイト_DキャリアITエキスパート京都駅前_鈴木誠\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\Dキャリアコース\01_ライフコース\02_自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51A422A-4821-4EBB-AB2B-742EFA44FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D029058-13D2-4C54-AD63-CBEDE06CFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自己紹介サイト採点チェックリスト" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="218">
   <si>
     <t>自己紹介サイト採点チェックリスト</t>
   </si>
@@ -3338,6 +3338,16 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>訂正致しました。</t>
+    <rPh sb="0" eb="2">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -3666,7 +3676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3841,6 +3851,18 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3865,17 +3887,8 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4097,30 +4110,30 @@
   </sheetPr>
   <dimension ref="A1:AM899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="103" customWidth="1"/>
-    <col min="4" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="18" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" customWidth="1"/>
-    <col min="20" max="20" width="48.140625" customWidth="1"/>
-    <col min="21" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="32" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="18" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.44140625" customWidth="1"/>
+    <col min="20" max="20" width="48.109375" customWidth="1"/>
+    <col min="21" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="13.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -4247,46 +4260,46 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="71" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="60" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="60" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="60" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="60" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="60" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="69" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="61"/>
+      <c r="R3" s="65"/>
       <c r="S3" s="58" t="s">
         <v>193</v>
       </c>
@@ -4338,9 +4351,9 @@
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
@@ -4437,47 +4450,47 @@
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
       <c r="A6" s="7">
@@ -4629,47 +4642,47 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1">
       <c r="A10" s="7">
@@ -4775,12 +4788,12 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="73.5">
+    <row r="12" spans="1:39" ht="73.8">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="63" t="s">
         <v>215</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -4789,10 +4802,12 @@
       <c r="E12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4805,10 +4820,12 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="71" t="s">
+      <c r="T12" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="U12" s="74" t="s">
+        <v>217</v>
+      </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -5403,7 +5420,7 @@
       <c r="E24" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="60" t="s">
         <v>202</v>
       </c>
       <c r="G24" s="10"/>
@@ -5419,7 +5436,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="71" t="s">
+      <c r="T24" s="61" t="s">
         <v>203</v>
       </c>
       <c r="U24" s="11"/>
@@ -5647,47 +5664,47 @@
       <c r="AM28" s="1"/>
     </row>
     <row r="29" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
     </row>
     <row r="30" spans="1:39" ht="18.75" customHeight="1">
       <c r="A30" s="7">
@@ -6368,7 +6385,7 @@
       <c r="E43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G43" s="10"/>
@@ -6384,7 +6401,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="11"/>
-      <c r="T43" s="71" t="s">
+      <c r="T43" s="61" t="s">
         <v>204</v>
       </c>
       <c r="U43" s="11"/>
@@ -7702,7 +7719,7 @@
       <c r="E69" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="70" t="s">
+      <c r="F69" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G69" s="10"/>
@@ -7718,7 +7735,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="11"/>
-      <c r="T69" s="71" t="s">
+      <c r="T69" s="61" t="s">
         <v>205</v>
       </c>
       <c r="U69" s="11"/>
@@ -8369,7 +8386,7 @@
       <c r="E82" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F82" s="70" t="s">
+      <c r="F82" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G82" s="10"/>
@@ -8385,7 +8402,7 @@
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
       <c r="S82" s="11"/>
-      <c r="T82" s="71" t="s">
+      <c r="T82" s="61" t="s">
         <v>206</v>
       </c>
       <c r="U82" s="11"/>
@@ -8459,7 +8476,7 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" ht="93">
+    <row r="84" spans="1:39" ht="94.2">
       <c r="A84" s="7">
         <v>77</v>
       </c>
@@ -8473,7 +8490,7 @@
       <c r="E84" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F84" s="70" t="s">
+      <c r="F84" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G84" s="10"/>
@@ -8489,7 +8506,7 @@
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="11"/>
-      <c r="T84" s="71" t="s">
+      <c r="T84" s="61" t="s">
         <v>207</v>
       </c>
       <c r="U84" s="11"/>
@@ -9652,7 +9669,7 @@
       <c r="E107" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F107" s="70" t="s">
+      <c r="F107" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G107" s="10"/>
@@ -9668,7 +9685,7 @@
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
       <c r="S107" s="11"/>
-      <c r="T107" s="72" t="s">
+      <c r="T107" s="62" t="s">
         <v>208</v>
       </c>
       <c r="U107" s="11"/>
@@ -9756,7 +9773,7 @@
       <c r="E109" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F109" s="70" t="s">
+      <c r="F109" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G109" s="10"/>
@@ -9772,7 +9789,7 @@
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
       <c r="S109" s="11"/>
-      <c r="T109" s="72" t="s">
+      <c r="T109" s="62" t="s">
         <v>209</v>
       </c>
       <c r="U109" s="11"/>
@@ -10066,7 +10083,7 @@
       <c r="E115" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F115" s="70" t="s">
+      <c r="F115" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G115" s="10"/>
@@ -10082,7 +10099,7 @@
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
       <c r="S115" s="11"/>
-      <c r="T115" s="71" t="s">
+      <c r="T115" s="61" t="s">
         <v>210</v>
       </c>
       <c r="U115" s="11"/>
@@ -10425,7 +10442,7 @@
       <c r="E122" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F122" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G122" s="10"/>
@@ -10441,7 +10458,7 @@
       <c r="Q122" s="10"/>
       <c r="R122" s="10"/>
       <c r="S122" s="11"/>
-      <c r="T122" s="71" t="s">
+      <c r="T122" s="61" t="s">
         <v>211</v>
       </c>
       <c r="U122" s="11"/>
@@ -10580,7 +10597,7 @@
       <c r="E125" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F125" s="70" t="s">
+      <c r="F125" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G125" s="10"/>
@@ -12103,47 +12120,47 @@
       <c r="AM154" s="1"/>
     </row>
     <row r="155" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="63"/>
-      <c r="J155" s="63"/>
-      <c r="K155" s="63"/>
-      <c r="L155" s="63"/>
-      <c r="M155" s="63"/>
-      <c r="N155" s="63"/>
-      <c r="O155" s="63"/>
-      <c r="P155" s="63"/>
-      <c r="Q155" s="63"/>
-      <c r="R155" s="63"/>
-      <c r="S155" s="63"/>
-      <c r="T155" s="63"/>
-      <c r="U155" s="63"/>
-      <c r="V155" s="63"/>
-      <c r="W155" s="63"/>
-      <c r="X155" s="63"/>
-      <c r="Y155" s="63"/>
-      <c r="Z155" s="63"/>
-      <c r="AA155" s="63"/>
-      <c r="AB155" s="63"/>
-      <c r="AC155" s="63"/>
-      <c r="AD155" s="63"/>
-      <c r="AE155" s="63"/>
-      <c r="AF155" s="63"/>
-      <c r="AG155" s="63"/>
-      <c r="AH155" s="63"/>
-      <c r="AI155" s="63"/>
-      <c r="AJ155" s="63"/>
-      <c r="AK155" s="63"/>
-      <c r="AL155" s="63"/>
-      <c r="AM155" s="63"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="67"/>
+      <c r="K155" s="67"/>
+      <c r="L155" s="67"/>
+      <c r="M155" s="67"/>
+      <c r="N155" s="67"/>
+      <c r="O155" s="67"/>
+      <c r="P155" s="67"/>
+      <c r="Q155" s="67"/>
+      <c r="R155" s="67"/>
+      <c r="S155" s="67"/>
+      <c r="T155" s="67"/>
+      <c r="U155" s="67"/>
+      <c r="V155" s="67"/>
+      <c r="W155" s="67"/>
+      <c r="X155" s="67"/>
+      <c r="Y155" s="67"/>
+      <c r="Z155" s="67"/>
+      <c r="AA155" s="67"/>
+      <c r="AB155" s="67"/>
+      <c r="AC155" s="67"/>
+      <c r="AD155" s="67"/>
+      <c r="AE155" s="67"/>
+      <c r="AF155" s="67"/>
+      <c r="AG155" s="67"/>
+      <c r="AH155" s="67"/>
+      <c r="AI155" s="67"/>
+      <c r="AJ155" s="67"/>
+      <c r="AK155" s="67"/>
+      <c r="AL155" s="67"/>
+      <c r="AM155" s="67"/>
     </row>
     <row r="156" spans="1:39" ht="18.75" customHeight="1">
       <c r="A156" s="11">
@@ -12836,7 +12853,7 @@
       <c r="E169" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F169" s="70" t="s">
+      <c r="F169" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G169" s="10"/>
@@ -12852,7 +12869,7 @@
       <c r="Q169" s="10"/>
       <c r="R169" s="10"/>
       <c r="S169" s="11"/>
-      <c r="T169" s="71" t="s">
+      <c r="T169" s="61" t="s">
         <v>213</v>
       </c>
       <c r="U169" s="11"/>
@@ -12876,47 +12893,47 @@
       <c r="AM169" s="1"/>
     </row>
     <row r="170" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A170" s="62" t="s">
+      <c r="A170" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="63"/>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="63"/>
-      <c r="H170" s="63"/>
-      <c r="I170" s="63"/>
-      <c r="J170" s="63"/>
-      <c r="K170" s="63"/>
-      <c r="L170" s="63"/>
-      <c r="M170" s="63"/>
-      <c r="N170" s="63"/>
-      <c r="O170" s="63"/>
-      <c r="P170" s="63"/>
-      <c r="Q170" s="63"/>
-      <c r="R170" s="63"/>
-      <c r="S170" s="63"/>
-      <c r="T170" s="63"/>
-      <c r="U170" s="63"/>
-      <c r="V170" s="63"/>
-      <c r="W170" s="63"/>
-      <c r="X170" s="63"/>
-      <c r="Y170" s="63"/>
-      <c r="Z170" s="63"/>
-      <c r="AA170" s="63"/>
-      <c r="AB170" s="63"/>
-      <c r="AC170" s="63"/>
-      <c r="AD170" s="63"/>
-      <c r="AE170" s="63"/>
-      <c r="AF170" s="63"/>
-      <c r="AG170" s="63"/>
-      <c r="AH170" s="63"/>
-      <c r="AI170" s="63"/>
-      <c r="AJ170" s="63"/>
-      <c r="AK170" s="63"/>
-      <c r="AL170" s="63"/>
-      <c r="AM170" s="63"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+      <c r="M170" s="67"/>
+      <c r="N170" s="67"/>
+      <c r="O170" s="67"/>
+      <c r="P170" s="67"/>
+      <c r="Q170" s="67"/>
+      <c r="R170" s="67"/>
+      <c r="S170" s="67"/>
+      <c r="T170" s="67"/>
+      <c r="U170" s="67"/>
+      <c r="V170" s="67"/>
+      <c r="W170" s="67"/>
+      <c r="X170" s="67"/>
+      <c r="Y170" s="67"/>
+      <c r="Z170" s="67"/>
+      <c r="AA170" s="67"/>
+      <c r="AB170" s="67"/>
+      <c r="AC170" s="67"/>
+      <c r="AD170" s="67"/>
+      <c r="AE170" s="67"/>
+      <c r="AF170" s="67"/>
+      <c r="AG170" s="67"/>
+      <c r="AH170" s="67"/>
+      <c r="AI170" s="67"/>
+      <c r="AJ170" s="67"/>
+      <c r="AK170" s="67"/>
+      <c r="AL170" s="67"/>
+      <c r="AM170" s="67"/>
     </row>
     <row r="171" spans="1:39" ht="39" customHeight="1">
       <c r="A171" s="7">
@@ -13381,7 +13398,7 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
     </row>
-    <row r="180" spans="1:39" ht="103.9" customHeight="1">
+    <row r="180" spans="1:39" ht="103.95" customHeight="1">
       <c r="A180" s="7">
         <v>171</v>
       </c>
@@ -13395,7 +13412,7 @@
       <c r="E180" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F180" s="70" t="s">
+      <c r="F180" s="60" t="s">
         <v>201</v>
       </c>
       <c r="G180" s="10"/>
@@ -13411,7 +13428,7 @@
       <c r="Q180" s="10"/>
       <c r="R180" s="10"/>
       <c r="S180" s="11"/>
-      <c r="T180" s="72" t="s">
+      <c r="T180" s="62" t="s">
         <v>214</v>
       </c>
       <c r="U180" s="11"/>
@@ -13487,7 +13504,7 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
     </row>
-    <row r="182" spans="1:39" ht="98.65" customHeight="1">
+    <row r="182" spans="1:39" ht="98.7" customHeight="1">
       <c r="A182" s="7">
         <v>173</v>
       </c>

--- a/01_ライフコース/02_自己紹介サイト作成/2768_1st_自己紹介サイト採点チェックリスト.xlsx
+++ b/01_ライフコース/02_自己紹介サイト作成/2768_1st_自己紹介サイト採点チェックリスト.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\Dキャリアコース\01_ライフコース\02_自己紹介サイト作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JOB\DCareer\DWork\01_ライフコース\02_自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D029058-13D2-4C54-AD63-CBEDE06CFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE3D50-3106-48BE-AE6C-6D68DECF0981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="1365" windowWidth="19365" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自己紹介サイト採点チェックリスト" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="218">
   <si>
     <t>自己紹介サイト採点チェックリスト</t>
   </si>
@@ -3339,12 +3328,9 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>訂正致しました。</t>
+    <t>修正しました。</t>
     <rPh sb="0" eb="2">
-      <t>テイセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イタ</t>
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -3863,6 +3849,9 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3886,9 +3875,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4110,30 +4096,36 @@
   </sheetPr>
   <dimension ref="A1:AM899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane xSplit="7" ySplit="11" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="103" customWidth="1"/>
-    <col min="4" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="18" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" customWidth="1"/>
-    <col min="20" max="20" width="48.109375" customWidth="1"/>
-    <col min="21" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="32" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="18" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="20" width="48.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="13.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -4260,46 +4252,46 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="73" t="s">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="65"/>
+      <c r="R3" s="66"/>
       <c r="S3" s="58" t="s">
         <v>193</v>
       </c>
@@ -4351,9 +4343,9 @@
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
@@ -4450,47 +4442,47 @@
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
       <c r="A6" s="7">
@@ -4642,47 +4634,47 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1">
       <c r="A10" s="7">
@@ -4788,7 +4780,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="73.8">
+    <row r="12" spans="1:39" ht="73.5">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -4823,7 +4815,7 @@
       <c r="T12" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="64" t="s">
         <v>217</v>
       </c>
       <c r="V12" s="11"/>
@@ -5664,47 +5656,47 @@
       <c r="AM28" s="1"/>
     </row>
     <row r="29" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="68"/>
+      <c r="AK29" s="68"/>
+      <c r="AL29" s="68"/>
+      <c r="AM29" s="68"/>
     </row>
     <row r="30" spans="1:39" ht="18.75" customHeight="1">
       <c r="A30" s="7">
@@ -6388,7 +6380,9 @@
       <c r="F43" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -6404,7 +6398,9 @@
       <c r="T43" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="U43" s="11"/>
+      <c r="U43" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -7722,7 +7718,9 @@
       <c r="F69" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -7738,7 +7736,9 @@
       <c r="T69" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="U69" s="11"/>
+      <c r="U69" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -8389,7 +8389,9 @@
       <c r="F82" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -8405,7 +8407,9 @@
       <c r="T82" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="U82" s="11"/>
+      <c r="U82" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="V82" s="11"/>
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
@@ -8476,7 +8480,7 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" ht="94.2">
+    <row r="84" spans="1:39" ht="93">
       <c r="A84" s="7">
         <v>77</v>
       </c>
@@ -12120,47 +12124,47 @@
       <c r="AM154" s="1"/>
     </row>
     <row r="155" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A155" s="66" t="s">
+      <c r="A155" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B155" s="67"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="67"/>
-      <c r="K155" s="67"/>
-      <c r="L155" s="67"/>
-      <c r="M155" s="67"/>
-      <c r="N155" s="67"/>
-      <c r="O155" s="67"/>
-      <c r="P155" s="67"/>
-      <c r="Q155" s="67"/>
-      <c r="R155" s="67"/>
-      <c r="S155" s="67"/>
-      <c r="T155" s="67"/>
-      <c r="U155" s="67"/>
-      <c r="V155" s="67"/>
-      <c r="W155" s="67"/>
-      <c r="X155" s="67"/>
-      <c r="Y155" s="67"/>
-      <c r="Z155" s="67"/>
-      <c r="AA155" s="67"/>
-      <c r="AB155" s="67"/>
-      <c r="AC155" s="67"/>
-      <c r="AD155" s="67"/>
-      <c r="AE155" s="67"/>
-      <c r="AF155" s="67"/>
-      <c r="AG155" s="67"/>
-      <c r="AH155" s="67"/>
-      <c r="AI155" s="67"/>
-      <c r="AJ155" s="67"/>
-      <c r="AK155" s="67"/>
-      <c r="AL155" s="67"/>
-      <c r="AM155" s="67"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="68"/>
+      <c r="I155" s="68"/>
+      <c r="J155" s="68"/>
+      <c r="K155" s="68"/>
+      <c r="L155" s="68"/>
+      <c r="M155" s="68"/>
+      <c r="N155" s="68"/>
+      <c r="O155" s="68"/>
+      <c r="P155" s="68"/>
+      <c r="Q155" s="68"/>
+      <c r="R155" s="68"/>
+      <c r="S155" s="68"/>
+      <c r="T155" s="68"/>
+      <c r="U155" s="68"/>
+      <c r="V155" s="68"/>
+      <c r="W155" s="68"/>
+      <c r="X155" s="68"/>
+      <c r="Y155" s="68"/>
+      <c r="Z155" s="68"/>
+      <c r="AA155" s="68"/>
+      <c r="AB155" s="68"/>
+      <c r="AC155" s="68"/>
+      <c r="AD155" s="68"/>
+      <c r="AE155" s="68"/>
+      <c r="AF155" s="68"/>
+      <c r="AG155" s="68"/>
+      <c r="AH155" s="68"/>
+      <c r="AI155" s="68"/>
+      <c r="AJ155" s="68"/>
+      <c r="AK155" s="68"/>
+      <c r="AL155" s="68"/>
+      <c r="AM155" s="68"/>
     </row>
     <row r="156" spans="1:39" ht="18.75" customHeight="1">
       <c r="A156" s="11">
@@ -12893,47 +12897,47 @@
       <c r="AM169" s="1"/>
     </row>
     <row r="170" spans="1:39" ht="18.75" customHeight="1">
-      <c r="A170" s="66" t="s">
+      <c r="A170" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="67"/>
-      <c r="M170" s="67"/>
-      <c r="N170" s="67"/>
-      <c r="O170" s="67"/>
-      <c r="P170" s="67"/>
-      <c r="Q170" s="67"/>
-      <c r="R170" s="67"/>
-      <c r="S170" s="67"/>
-      <c r="T170" s="67"/>
-      <c r="U170" s="67"/>
-      <c r="V170" s="67"/>
-      <c r="W170" s="67"/>
-      <c r="X170" s="67"/>
-      <c r="Y170" s="67"/>
-      <c r="Z170" s="67"/>
-      <c r="AA170" s="67"/>
-      <c r="AB170" s="67"/>
-      <c r="AC170" s="67"/>
-      <c r="AD170" s="67"/>
-      <c r="AE170" s="67"/>
-      <c r="AF170" s="67"/>
-      <c r="AG170" s="67"/>
-      <c r="AH170" s="67"/>
-      <c r="AI170" s="67"/>
-      <c r="AJ170" s="67"/>
-      <c r="AK170" s="67"/>
-      <c r="AL170" s="67"/>
-      <c r="AM170" s="67"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="68"/>
+      <c r="I170" s="68"/>
+      <c r="J170" s="68"/>
+      <c r="K170" s="68"/>
+      <c r="L170" s="68"/>
+      <c r="M170" s="68"/>
+      <c r="N170" s="68"/>
+      <c r="O170" s="68"/>
+      <c r="P170" s="68"/>
+      <c r="Q170" s="68"/>
+      <c r="R170" s="68"/>
+      <c r="S170" s="68"/>
+      <c r="T170" s="68"/>
+      <c r="U170" s="68"/>
+      <c r="V170" s="68"/>
+      <c r="W170" s="68"/>
+      <c r="X170" s="68"/>
+      <c r="Y170" s="68"/>
+      <c r="Z170" s="68"/>
+      <c r="AA170" s="68"/>
+      <c r="AB170" s="68"/>
+      <c r="AC170" s="68"/>
+      <c r="AD170" s="68"/>
+      <c r="AE170" s="68"/>
+      <c r="AF170" s="68"/>
+      <c r="AG170" s="68"/>
+      <c r="AH170" s="68"/>
+      <c r="AI170" s="68"/>
+      <c r="AJ170" s="68"/>
+      <c r="AK170" s="68"/>
+      <c r="AL170" s="68"/>
+      <c r="AM170" s="68"/>
     </row>
     <row r="171" spans="1:39" ht="39" customHeight="1">
       <c r="A171" s="7">
@@ -13398,7 +13402,7 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
     </row>
-    <row r="180" spans="1:39" ht="103.95" customHeight="1">
+    <row r="180" spans="1:39" ht="103.9" customHeight="1">
       <c r="A180" s="7">
         <v>171</v>
       </c>
@@ -13504,7 +13508,7 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
     </row>
-    <row r="182" spans="1:39" ht="98.7" customHeight="1">
+    <row r="182" spans="1:39" ht="98.65" customHeight="1">
       <c r="A182" s="7">
         <v>173</v>
       </c>
